--- a/resúmenes.xlsx
+++ b/resúmenes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Textos Base" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -29,10 +29,10 @@
     <t xml:space="preserve">Texto Base</t>
   </si>
   <si>
-    <t xml:space="preserve">El texto completo sobre la Revolución Industrial...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El texto completo sobre la fotosíntesis...</t>
+    <t xml:space="preserve">El colapso del Imperio Romano de Occidente en 476 d.C. no fue producto de una sola causa, sino de una compleja interacción de factores a largo plazo. Internamente, el Imperio sufrió una severa inestabilidad política, con una sucesión constante de emperadores débiles y guerras civiles que erosionaron la autoridad central. Económicamente, la inflación galopante, la dependencia del trabajo esclavo y la enorme carga fiscal para mantener un ejército desmesurado debilitaron las finanzas. A esto se sumaron problemas sociales, como la apatía cívica y la decadencia de las ciudades. Externamente, la presión constante de las tribus germánicas (como los visigodos y vándalos), que huían de los hunos, culminó en invasiones que el debilitado ejército romano ya no pudo repeler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 1953, James Watson y Francis Crick propusieron el modelo de la doble hélice para la estructura del ADN, marcando un hito en la biología. Basándose en gran medida en el trabajo de Rosalind Franklin y Maurice Wilkins, quienes obtuvieron imágenes de difracción de rayos X del ADN, Watson y Crick dedujeron su estructura. Describieron el ADN como una escalera de caracol: dos hebras largas enrolladas una alrededor de la otra. Los "lados" de la escalera están formados por moléculas de azúcar (desoxirribosa) y fosfato. Los "peldaños" están compuestos por pares de bases nitrogenadas: Adenina (A) siempre se aparea con Timina (T), y Guanina (G) siempre se aparea con Citosina (C). Esta estructura no solo explica cómo se almacena la información genética, sino también cómo puede copiarse fielmente durante la división celular.</t>
   </si>
   <si>
     <t xml:space="preserve">Autor</t>
@@ -41,22 +41,28 @@
     <t xml:space="preserve">Resumen</t>
   </si>
   <si>
-    <t xml:space="preserve">Juan Pérez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La revolución industrial fue importante...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Gómez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La fotosíntesis es el proceso de las plantas...</t>
+    <t xml:space="preserve">Anderson Velásquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La caída de Roma en 476 d.C. se debió a una combinación de factores. La inestabilidad política interna y las guerras civiles debilitaron al gobierno, mientras que la economía sufría de inflación y altos impuestos militares. Socialmente, las ciudades decayeron. Estos problemas internos dejaron al Imperio vulnerable a las invasiones externas de tribus germánicas, que finalmente no pudieron ser contenidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josseline De La Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roma se cayó por los barbaros. Benian los hunos y los germanos y no tenian ejercito. Los enperadores eran malos y la jente no queria pagar impuestos. Fue en el 476. Fue un colapso total.</t>
   </si>
   <si>
     <t xml:space="preserve">María López</t>
   </si>
   <si>
-    <t xml:space="preserve">En el siglo 18 cambió todo por las máquinas...</t>
+    <t xml:space="preserve">Watson y Crick descubrieron el ADN en 1953. Dijeron que era una doble hélice, como una escalera. Los lados son de azúcar y los peldaños son bases A, T, G y C. Esto fue importante para saber cómo se copia la información de la genética. Usaron fotos de rayos X de otra científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Mendoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La estructura de doble hélice del ADN fue propuesta por Watson y Crick en 1953, utilizando datos cruciales de difracción de rayos X de Rosalind Franklin. El modelo describe dos hebras de azúcar-fosfato enrolladas, conectadas por "peldaños" de pares de bases nitrogenadas (A con T, y G con C). Esta estructura explica el almacenamiento y la replicación precisa de la información genética.</t>
   </si>
 </sst>
 </file>
@@ -147,21 +153,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -355,11 +369,14 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.05"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -369,19 +386,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -401,16 +418,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.33"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -422,44 +442,55 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
